--- a/biology/Médecine/Syndrome_de_Cyriax/Syndrome_de_Cyriax.xlsx
+++ b/biology/Médecine/Syndrome_de_Cyriax/Syndrome_de_Cyriax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Syndrome de Cyriax est un syndrome consistant en la subluxation des cartilages antérieurs de certaines côtes qui sont alors extrêmement douloureuses.
@@ -512,9 +524,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome a été décrit pour la première fois en 1919 par Edgar Ferdinand Cyriax, médecin britannique (1874-1955)[1], père de James Cyriax, éminent spécialiste de la médecine orthopédique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome a été décrit pour la première fois en 1919 par Edgar Ferdinand Cyriax, médecin britannique (1874-1955), père de James Cyriax, éminent spécialiste de la médecine orthopédique.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les 8e et 9e côtes sont les plus fréquemment touchées, le plus souvent à droite.
 </t>
@@ -574,7 +590,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les causes sont parfois traumatiques :
 causes directes : choc contre le volant de la voiture, chute sur le sol, etc.,
@@ -606,7 +624,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bandage élastique associé à des antalgiques est souvent prescrit.
 On peut aussi injecter un anesthésique local au niveau du point douloureux.
